--- a/Share_in_PV_Weight.xlsx
+++ b/Share_in_PV_Weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9BFC7-6010-40A2-B63D-91330F32BD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8515D7-3DD4-4CAF-9F00-CA8A859B7223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8964" xr2:uid="{FB152146-AA6F-4DBB-B963-53D4DB062044}"/>
+    <workbookView minimized="1" xWindow="-3432" yWindow="4212" windowWidth="17280" windowHeight="8964" xr2:uid="{FB152146-AA6F-4DBB-B963-53D4DB062044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Actor</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>2013</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.00000000000000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +124,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,7 +189,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,9 +207,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9263FA44-8550-426A-B06C-418D49E929B6}" name="ShareofPV" displayName="ShareofPV" ref="A1:O8" totalsRowShown="0">
-  <autoFilter ref="A1:O8" xr:uid="{9263FA44-8550-426A-B06C-418D49E929B6}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9263FA44-8550-426A-B06C-418D49E929B6}" name="ShareofPV" displayName="ShareofPV" ref="A1:P8" totalsRowShown="0">
+  <autoFilter ref="A1:P8" xr:uid="{9263FA44-8550-426A-B06C-418D49E929B6}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{880DE38D-BD99-42D2-8C77-4C288A7B9E9B}" name="Actor"/>
     <tableColumn id="15" xr3:uid="{AA45E3CC-F4F1-4F7C-ABC3-4C415EE17743}" name="2007"/>
     <tableColumn id="14" xr3:uid="{88B24F6C-8BBA-49F0-8DC9-12F0CFBAE1E1}" name="2008"/>
@@ -212,6 +225,7 @@
     <tableColumn id="6" xr3:uid="{07AF0886-C2C2-41C6-91DE-8BE813569A37}" name="2018"/>
     <tableColumn id="7" xr3:uid="{4C4BD00F-BCE5-48B0-8F61-2A197591E44E}" name="2019"/>
     <tableColumn id="8" xr3:uid="{17E60EAB-C6C0-41CE-BA48-57826DE9E50E}" name="2020"/>
+    <tableColumn id="16" xr3:uid="{4C85F39E-E497-455C-95B7-03F4CF62DF07}" name="2021" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D71154-4C53-4E5D-8EB1-B5B9F947CE7C}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +539,7 @@
     <col min="1" max="8" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +585,11 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -618,8 +635,11 @@
       <c r="O2" s="1">
         <v>0.99306365859475543</v>
       </c>
+      <c r="P2" s="1">
+        <v>0.99306365859475543</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -665,8 +685,11 @@
       <c r="O3" s="1">
         <v>0.98303529066847228</v>
       </c>
+      <c r="P3" s="1">
+        <v>0.98303529066847228</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -712,8 +735,11 @@
       <c r="O4" s="1">
         <v>0.98662088261477809</v>
       </c>
+      <c r="P4" s="1">
+        <v>0.98662088261477809</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -759,8 +785,11 @@
       <c r="O5" s="1">
         <v>0.9956021991920605</v>
       </c>
+      <c r="P5" s="1">
+        <v>0.9956021991920605</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -806,8 +835,11 @@
       <c r="O6" s="1">
         <v>0.9969722472228566</v>
       </c>
+      <c r="P6" s="1">
+        <v>0.9969722472228566</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -853,8 +885,11 @@
       <c r="O7" s="1">
         <v>0.83073802982540224</v>
       </c>
+      <c r="P7" s="1">
+        <v>0.83073802982540224</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -904,11 +939,15 @@
       <c r="O8" s="1">
         <v>0.97989961311949147</v>
       </c>
+      <c r="P8" s="1">
+        <v>0.97989961311949147</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E10" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
